--- a/ModelClass/MiniServices/data/data.xlsx
+++ b/ModelClass/MiniServices/data/data.xlsx
@@ -11,60 +11,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Mã học sinh</t>
-  </si>
-  <si>
-    <t>Họ tên</t>
+    <t>Tên học sinh</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>CMND</t>
   </si>
   <si>
     <t>Giới tính</t>
   </si>
   <si>
-    <t>Xếp loại</t>
-  </si>
-  <si>
-    <t>HS20180101</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Nguyễn Trần A</t>
   </si>
   <si>
     <t>nam</t>
   </si>
   <si>
-    <t>tốt</t>
-  </si>
-  <si>
-    <t>HS20180102</t>
-  </si>
-  <si>
-    <t>khá</t>
-  </si>
-  <si>
-    <t>HS20180103</t>
-  </si>
-  <si>
-    <t>trung  bình</t>
-  </si>
-  <si>
-    <t>HS20180104</t>
-  </si>
-  <si>
-    <t>kém</t>
-  </si>
-  <si>
-    <t>HS20180105</t>
+    <t>Số 1 Trần Hưng Đạo, quận 1, TP.HCM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt formatCode="[$-409]mm/dd/yyyy" numFmtId="164"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -116,12 +98,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -130,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -138,12 +124,13 @@
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -159,89 +146,247 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>37167.7078704</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>987654321</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>36960.7078704</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>987654321</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>36960.7078704</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>987654321</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>36960.7078704</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>987654321</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>36960.7078704</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>987654321</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>36960.7078704</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>987654321</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>36960.7078704</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>987654321</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>36960.7078704</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>987654321</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>36960.7078704</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>987654321</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>36960.7078704</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>987654321</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>36960.7078704</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>987654321</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <v>36960.7078704</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>987654321</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
